--- a/data/pca/factorExposure/factorExposure_2018-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009871623144161927</v>
+        <v>-0.01414867868517554</v>
       </c>
       <c r="C2">
-        <v>0.02693824202253949</v>
+        <v>0.01653173746284242</v>
       </c>
       <c r="D2">
-        <v>0.03145223702110913</v>
+        <v>0.03464624189381366</v>
       </c>
       <c r="E2">
-        <v>-0.003736040684721287</v>
+        <v>-0.02006891604312383</v>
       </c>
       <c r="F2">
-        <v>0.1003558215032235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.001523672551558755</v>
+      </c>
+      <c r="G2">
+        <v>0.0348987953102487</v>
+      </c>
+      <c r="H2">
+        <v>0.04624228512098494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08817063933762818</v>
+        <v>-0.06587160312446566</v>
       </c>
       <c r="C3">
-        <v>0.04523938116369641</v>
+        <v>-0.01509526338120362</v>
       </c>
       <c r="D3">
-        <v>0.02945494719018585</v>
+        <v>0.08191129957276938</v>
       </c>
       <c r="E3">
-        <v>-0.03743081350620633</v>
+        <v>-0.009932282100799062</v>
       </c>
       <c r="F3">
-        <v>0.3504333235642885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03077784066981792</v>
+      </c>
+      <c r="G3">
+        <v>0.1488463218425559</v>
+      </c>
+      <c r="H3">
+        <v>0.1215194968211192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04367523610214059</v>
+        <v>-0.03485125447097509</v>
       </c>
       <c r="C4">
-        <v>0.01464015666472569</v>
+        <v>0.002569261121534364</v>
       </c>
       <c r="D4">
-        <v>0.04257867735691565</v>
+        <v>0.06684475053878487</v>
       </c>
       <c r="E4">
-        <v>0.0298127550790088</v>
+        <v>0.01592041899822541</v>
       </c>
       <c r="F4">
-        <v>0.06367070315849725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03667156436158203</v>
+      </c>
+      <c r="G4">
+        <v>0.04336413012336666</v>
+      </c>
+      <c r="H4">
+        <v>0.05770960923197233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03198829338523839</v>
+        <v>-0.01916158751548981</v>
       </c>
       <c r="C6">
-        <v>0.01207936218487566</v>
+        <v>-0.001511052935459376</v>
       </c>
       <c r="D6">
-        <v>0.03953620904739612</v>
+        <v>0.06528193923651275</v>
       </c>
       <c r="E6">
-        <v>0.01838417781455921</v>
+        <v>0.005394645902955016</v>
       </c>
       <c r="F6">
-        <v>0.009958967249115592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03107764406456728</v>
+      </c>
+      <c r="G6">
+        <v>0.01550894378925416</v>
+      </c>
+      <c r="H6">
+        <v>0.05883841128037246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0363765927563313</v>
+        <v>-0.008412660429762579</v>
       </c>
       <c r="C7">
-        <v>-0.02846668255648185</v>
+        <v>0.002522282953768747</v>
       </c>
       <c r="D7">
-        <v>0.03845871545969139</v>
+        <v>0.0367668974116333</v>
       </c>
       <c r="E7">
-        <v>0.01404514036015304</v>
+        <v>0.04314643668391909</v>
       </c>
       <c r="F7">
-        <v>0.03817149311405584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.003501691238588216</v>
+      </c>
+      <c r="G7">
+        <v>0.02290531497353666</v>
+      </c>
+      <c r="H7">
+        <v>0.03530879936027444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01479254107076452</v>
+        <v>-0.001910984350763996</v>
       </c>
       <c r="C8">
-        <v>0.0009811209870892025</v>
+        <v>-0.001614689923638681</v>
       </c>
       <c r="D8">
-        <v>0.04921663403206217</v>
+        <v>0.01216969159410879</v>
       </c>
       <c r="E8">
-        <v>0.01865086432725405</v>
+        <v>0.008872467304418588</v>
       </c>
       <c r="F8">
-        <v>0.0634270055137849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.008543450129568362</v>
+      </c>
+      <c r="G8">
+        <v>0.03826668777210991</v>
+      </c>
+      <c r="H8">
+        <v>0.03450780714610587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03103745462814569</v>
+        <v>-0.02530665777639663</v>
       </c>
       <c r="C9">
-        <v>0.009144095653079231</v>
+        <v>0.0001403950745012756</v>
       </c>
       <c r="D9">
-        <v>0.03478361834643045</v>
+        <v>0.04901198095611538</v>
       </c>
       <c r="E9">
-        <v>0.01180443330368298</v>
+        <v>0.005238724383818732</v>
       </c>
       <c r="F9">
-        <v>0.07973568713336165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01172678703672854</v>
+      </c>
+      <c r="G9">
+        <v>0.04337275717753726</v>
+      </c>
+      <c r="H9">
+        <v>0.05512365699691091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04099389927894322</v>
+        <v>-0.1339756924774176</v>
       </c>
       <c r="C10">
-        <v>0.00220869257512359</v>
+        <v>0.003401556003287551</v>
       </c>
       <c r="D10">
-        <v>-0.1487686590497187</v>
+        <v>-0.1485123043342916</v>
       </c>
       <c r="E10">
-        <v>-0.03214364327182371</v>
+        <v>-0.001319379869654748</v>
       </c>
       <c r="F10">
-        <v>0.06789570441329525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04250659292473156</v>
+      </c>
+      <c r="G10">
+        <v>0.02838497838197829</v>
+      </c>
+      <c r="H10">
+        <v>-0.008215214832150012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02894174951410977</v>
+        <v>-0.01613567137450395</v>
       </c>
       <c r="C11">
-        <v>0.02124644207199973</v>
+        <v>-0.01218069508943391</v>
       </c>
       <c r="D11">
-        <v>0.0414334401460973</v>
+        <v>0.04911323008047553</v>
       </c>
       <c r="E11">
-        <v>0.01394039339469222</v>
+        <v>-0.001632763780663766</v>
       </c>
       <c r="F11">
-        <v>0.02834089602680678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.009913167832756304</v>
+      </c>
+      <c r="G11">
+        <v>0.02008785320059414</v>
+      </c>
+      <c r="H11">
+        <v>0.05178498560982724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0407241937661396</v>
+        <v>-0.0201363419257007</v>
       </c>
       <c r="C12">
-        <v>0.02053788487777019</v>
+        <v>-0.008434161588972906</v>
       </c>
       <c r="D12">
-        <v>0.03503662869637038</v>
+        <v>0.04865496752944467</v>
       </c>
       <c r="E12">
-        <v>0.0230348020446338</v>
+        <v>0.01097163838472944</v>
       </c>
       <c r="F12">
-        <v>0.002856842799459908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01313236616723831</v>
+      </c>
+      <c r="G12">
+        <v>0.005910742812548663</v>
+      </c>
+      <c r="H12">
+        <v>0.02086051130586178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.009474220435299916</v>
+        <v>-0.01971829149109429</v>
       </c>
       <c r="C13">
-        <v>0.02026103959153245</v>
+        <v>0.01319703941348647</v>
       </c>
       <c r="D13">
-        <v>0.0166338275345715</v>
+        <v>0.028804048360961</v>
       </c>
       <c r="E13">
-        <v>0.009899344204098772</v>
+        <v>-0.01323780234649887</v>
       </c>
       <c r="F13">
-        <v>0.07932257801123511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01352565561086842</v>
+      </c>
+      <c r="G13">
+        <v>0.05745357020052111</v>
+      </c>
+      <c r="H13">
+        <v>0.07349363840381333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01913211177456741</v>
+        <v>-0.009846596120328649</v>
       </c>
       <c r="C14">
-        <v>-0.003809176126048456</v>
+        <v>0.00111656196507856</v>
       </c>
       <c r="D14">
-        <v>0.02551848437200744</v>
+        <v>0.02005676116302752</v>
       </c>
       <c r="E14">
-        <v>0.01778291403223492</v>
+        <v>0.01387712025049146</v>
       </c>
       <c r="F14">
-        <v>0.05134081323284495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.005018152030948794</v>
+      </c>
+      <c r="G14">
+        <v>0.0403143817609186</v>
+      </c>
+      <c r="H14">
+        <v>0.009826319845853443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03070871097873189</v>
+        <v>-0.01780765530086268</v>
       </c>
       <c r="C16">
-        <v>0.02168745879854284</v>
+        <v>-0.01144140341754749</v>
       </c>
       <c r="D16">
-        <v>0.04421561538377334</v>
+        <v>0.04267211611887529</v>
       </c>
       <c r="E16">
-        <v>0.01652581732325351</v>
+        <v>0.00206604848329439</v>
       </c>
       <c r="F16">
-        <v>0.02910343841746404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01231975201702091</v>
+      </c>
+      <c r="G16">
+        <v>0.0190057131177106</v>
+      </c>
+      <c r="H16">
+        <v>0.0384396424667054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03238516597525463</v>
+        <v>-0.01886895878890719</v>
       </c>
       <c r="C19">
-        <v>0.01625601287971163</v>
+        <v>-0.0004452615027789004</v>
       </c>
       <c r="D19">
-        <v>0.05858987248526371</v>
+        <v>0.04758583860432986</v>
       </c>
       <c r="E19">
-        <v>0.03009332698370388</v>
+        <v>0.0105979644038888</v>
       </c>
       <c r="F19">
-        <v>0.0821224453567637</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01794365635290314</v>
+      </c>
+      <c r="G19">
+        <v>0.05736063115705183</v>
+      </c>
+      <c r="H19">
+        <v>0.05445865572852889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001319644867488004</v>
+        <v>-0.004636697453351652</v>
       </c>
       <c r="C20">
-        <v>-0.007456319267129856</v>
+        <v>0.004926839303260807</v>
       </c>
       <c r="D20">
-        <v>0.01183015602261309</v>
+        <v>0.02403888389285414</v>
       </c>
       <c r="E20">
-        <v>0.01284031759606863</v>
+        <v>0.00336235098790297</v>
       </c>
       <c r="F20">
-        <v>0.05779986722157378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.005024643404899657</v>
+      </c>
+      <c r="G20">
+        <v>0.04968989477921897</v>
+      </c>
+      <c r="H20">
+        <v>0.02853304528224992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01411312414443114</v>
+        <v>-0.01147223633369911</v>
       </c>
       <c r="C21">
-        <v>-0.01726825601794742</v>
+        <v>0.006983168479259438</v>
       </c>
       <c r="D21">
-        <v>0.03901110690093595</v>
+        <v>0.0230428969342521</v>
       </c>
       <c r="E21">
-        <v>-0.002770309309953683</v>
+        <v>0.01661039734180822</v>
       </c>
       <c r="F21">
-        <v>0.02968564935792653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.004852709569383732</v>
+      </c>
+      <c r="G21">
+        <v>0.04309057866198252</v>
+      </c>
+      <c r="H21">
+        <v>0.04898656619897444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02810214045296127</v>
+        <v>-0.01281158082329098</v>
       </c>
       <c r="C24">
-        <v>0.0195939685400974</v>
+        <v>-0.005950172590298652</v>
       </c>
       <c r="D24">
-        <v>0.02491473608533377</v>
+        <v>0.04364463223931155</v>
       </c>
       <c r="E24">
-        <v>0.01395868905766884</v>
+        <v>0.0002866399886608783</v>
       </c>
       <c r="F24">
-        <v>0.03167703321745501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.008053347352288596</v>
+      </c>
+      <c r="G24">
+        <v>0.01384419476589466</v>
+      </c>
+      <c r="H24">
+        <v>0.04640515702521862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03225859597767002</v>
+        <v>-0.02678418801170596</v>
       </c>
       <c r="C25">
-        <v>0.0177459613379633</v>
+        <v>-0.004240167274767976</v>
       </c>
       <c r="D25">
-        <v>0.03713483362459539</v>
+        <v>0.04814338406265086</v>
       </c>
       <c r="E25">
-        <v>0.010094539179141</v>
+        <v>0.006538847175528544</v>
       </c>
       <c r="F25">
-        <v>0.03380169163460265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01704186081232831</v>
+      </c>
+      <c r="G25">
+        <v>0.01657126849724571</v>
+      </c>
+      <c r="H25">
+        <v>0.04667119485687055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01732090339523001</v>
+        <v>-0.01261948822034925</v>
       </c>
       <c r="C26">
-        <v>0.01169287363534906</v>
+        <v>0.01864836564425689</v>
       </c>
       <c r="D26">
-        <v>0.02210071466434061</v>
+        <v>0.01313156272025999</v>
       </c>
       <c r="E26">
-        <v>-0.004363302623058561</v>
+        <v>-8.701814352448578e-05</v>
       </c>
       <c r="F26">
-        <v>0.05185145966337313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.001866077028089519</v>
+      </c>
+      <c r="G26">
+        <v>0.02455779359296959</v>
+      </c>
+      <c r="H26">
+        <v>0.0203861163541063</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.03788015919344346</v>
+        <v>-0.01401893107789003</v>
       </c>
       <c r="C27">
-        <v>0.01814501983822095</v>
+        <v>-0.005993256694201194</v>
       </c>
       <c r="D27">
-        <v>0.01338141499217403</v>
+        <v>0.01448721098311352</v>
       </c>
       <c r="E27">
-        <v>0.03123112737798239</v>
+        <v>0.00569777965661771</v>
       </c>
       <c r="F27">
-        <v>0.01840634505528538</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.005954192573590072</v>
+      </c>
+      <c r="G27">
+        <v>0.009543588896878284</v>
+      </c>
+      <c r="H27">
+        <v>-0.001659132447850166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07261010929838958</v>
+        <v>-0.1860754064360841</v>
       </c>
       <c r="C28">
-        <v>0.004932331941038429</v>
+        <v>0.01578570276734262</v>
       </c>
       <c r="D28">
-        <v>-0.217804720132204</v>
+        <v>-0.1904866635910341</v>
       </c>
       <c r="E28">
-        <v>-0.05303074453925841</v>
+        <v>0.01027315559608356</v>
       </c>
       <c r="F28">
-        <v>0.0679296787089381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03852061514122355</v>
+      </c>
+      <c r="G28">
+        <v>0.01673855822959913</v>
+      </c>
+      <c r="H28">
+        <v>-0.008674508136064492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02085426433733104</v>
+        <v>-0.01516253099407374</v>
       </c>
       <c r="C29">
-        <v>-0.002747766004817893</v>
+        <v>-0.0001560038906424704</v>
       </c>
       <c r="D29">
-        <v>0.03044762745587043</v>
+        <v>0.01972787091194332</v>
       </c>
       <c r="E29">
-        <v>0.01870061214112544</v>
+        <v>0.01283517209595462</v>
       </c>
       <c r="F29">
-        <v>0.04859447114052522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.00537713441526697</v>
+      </c>
+      <c r="G29">
+        <v>0.04008353225670552</v>
+      </c>
+      <c r="H29">
+        <v>0.006324587331288287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05213505294347973</v>
+        <v>-0.03511687346864152</v>
       </c>
       <c r="C30">
-        <v>0.07346753993129665</v>
+        <v>-0.0004810165182865925</v>
       </c>
       <c r="D30">
-        <v>0.06360485568894367</v>
+        <v>0.09671131773388961</v>
       </c>
       <c r="E30">
-        <v>0.0384021429852759</v>
+        <v>-0.03225009267397144</v>
       </c>
       <c r="F30">
-        <v>0.08367231394771817</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03768888148724876</v>
+      </c>
+      <c r="G30">
+        <v>0.05827172537914967</v>
+      </c>
+      <c r="H30">
+        <v>0.07194158927043441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0534087113740903</v>
+        <v>-0.04418913155300465</v>
       </c>
       <c r="C31">
-        <v>0.03607423472732982</v>
+        <v>-0.009714381560693786</v>
       </c>
       <c r="D31">
-        <v>0.02673287840307651</v>
+        <v>0.03264364979953361</v>
       </c>
       <c r="E31">
-        <v>0.01718190815498905</v>
+        <v>-0.002474488409040147</v>
       </c>
       <c r="F31">
-        <v>0.0298986259201752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.0004341555868613601</v>
+      </c>
+      <c r="G31">
+        <v>0.01758729680061753</v>
+      </c>
+      <c r="H31">
+        <v>0.002442508695581242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02313485973768963</v>
+        <v>-0.008205897259739468</v>
       </c>
       <c r="C32">
-        <v>-0.01404828899649161</v>
+        <v>-0.0134897453926486</v>
       </c>
       <c r="D32">
-        <v>0.0635267028427015</v>
+        <v>0.01442206184752967</v>
       </c>
       <c r="E32">
-        <v>0.03011414383675467</v>
+        <v>0.03045010281164247</v>
       </c>
       <c r="F32">
-        <v>0.04166814713595109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03132460402786005</v>
+      </c>
+      <c r="G32">
+        <v>0.04224834739579624</v>
+      </c>
+      <c r="H32">
+        <v>0.0465938370150283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03150619404441221</v>
+        <v>-0.02194479654988957</v>
       </c>
       <c r="C33">
-        <v>0.04229823868989316</v>
+        <v>-0.001088709093166978</v>
       </c>
       <c r="D33">
-        <v>0.05611210550068814</v>
+        <v>0.04988788981286062</v>
       </c>
       <c r="E33">
-        <v>-0.002182953578374362</v>
+        <v>-0.0200932136441547</v>
       </c>
       <c r="F33">
-        <v>0.06253879693521103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.005354244020606379</v>
+      </c>
+      <c r="G33">
+        <v>0.0392692723374669</v>
+      </c>
+      <c r="H33">
+        <v>0.05082675754648728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03473020567523954</v>
+        <v>-0.02434814299844286</v>
       </c>
       <c r="C34">
-        <v>0.01385032693550799</v>
+        <v>-0.02059156312552369</v>
       </c>
       <c r="D34">
-        <v>0.04646540683016769</v>
+        <v>0.04743493725222742</v>
       </c>
       <c r="E34">
-        <v>0.02631364718946906</v>
+        <v>0.01378500073091129</v>
       </c>
       <c r="F34">
-        <v>0.02802586296678396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01862834003131706</v>
+      </c>
+      <c r="G34">
+        <v>0.009578539642664271</v>
+      </c>
+      <c r="H34">
+        <v>0.03729853038122566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01734875240821182</v>
+        <v>-0.0158331820933452</v>
       </c>
       <c r="C36">
-        <v>-0.00025092507850252</v>
+        <v>0.00659563641572185</v>
       </c>
       <c r="D36">
-        <v>0.01671512936878773</v>
+        <v>0.007715957323310666</v>
       </c>
       <c r="E36">
-        <v>0.00887610200069364</v>
+        <v>0.007756713794476548</v>
       </c>
       <c r="F36">
-        <v>0.02802214343086673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001245252730574045</v>
+      </c>
+      <c r="G36">
+        <v>0.01755397452416136</v>
+      </c>
+      <c r="H36">
+        <v>0.01610555036572992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009297029427110031</v>
+        <v>-0.02539932018031462</v>
       </c>
       <c r="C38">
-        <v>0.005723530853924136</v>
+        <v>-0.01566467609286888</v>
       </c>
       <c r="D38">
-        <v>0.002278394107503691</v>
+        <v>0.01595792952357948</v>
       </c>
       <c r="E38">
-        <v>-0.01804232568136767</v>
+        <v>-1.109006872491623e-05</v>
       </c>
       <c r="F38">
-        <v>0.04302791620385237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.006240202401529235</v>
+      </c>
+      <c r="G38">
+        <v>0.02215648270979171</v>
+      </c>
+      <c r="H38">
+        <v>0.03593223636144623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02776424851389702</v>
+        <v>-0.006440293566727749</v>
       </c>
       <c r="C39">
-        <v>0.02040301576489294</v>
+        <v>-0.01018983388684449</v>
       </c>
       <c r="D39">
-        <v>0.06319054533704233</v>
+        <v>0.08870878033685257</v>
       </c>
       <c r="E39">
-        <v>0.0151250043132343</v>
+        <v>-0.006727331384796769</v>
       </c>
       <c r="F39">
-        <v>0.04776605119811763</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01508510283757777</v>
+      </c>
+      <c r="G39">
+        <v>0.03065821229902349</v>
+      </c>
+      <c r="H39">
+        <v>0.08109963482619242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01722205563723415</v>
+        <v>-0.02448920389055371</v>
       </c>
       <c r="C40">
-        <v>0.04859046651000395</v>
+        <v>-0.0007999561430009039</v>
       </c>
       <c r="D40">
-        <v>0.03195644366080196</v>
+        <v>0.03410394007585752</v>
       </c>
       <c r="E40">
-        <v>0.02920114452503634</v>
+        <v>-0.02418471505071233</v>
       </c>
       <c r="F40">
-        <v>0.04536896064328964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03187798796177962</v>
+      </c>
+      <c r="G40">
+        <v>0.01715939273485777</v>
+      </c>
+      <c r="H40">
+        <v>0.06123934254908314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004636450635212261</v>
+        <v>-0.01258588846732273</v>
       </c>
       <c r="C41">
-        <v>-0.001435338704962596</v>
+        <v>0.003238012956217081</v>
       </c>
       <c r="D41">
-        <v>0.006907355357793762</v>
+        <v>-0.009037981695776203</v>
       </c>
       <c r="E41">
-        <v>-0.01183636259541953</v>
+        <v>0.003979761219607498</v>
       </c>
       <c r="F41">
-        <v>0.005673033403290165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.00571542920702901</v>
+      </c>
+      <c r="G41">
+        <v>-0.001905251948877302</v>
+      </c>
+      <c r="H41">
+        <v>-0.004061342539428916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2473045149792658</v>
+        <v>-0.1185237713528729</v>
       </c>
       <c r="C42">
-        <v>0.2189996318435179</v>
+        <v>0.06792329053165237</v>
       </c>
       <c r="D42">
-        <v>0.1155768353502256</v>
+        <v>0.2473776360704451</v>
       </c>
       <c r="E42">
-        <v>-0.8733953626099432</v>
+        <v>-0.2372586254529293</v>
       </c>
       <c r="F42">
-        <v>-0.2500089506755184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8300709959515756</v>
+      </c>
+      <c r="G42">
+        <v>-0.3896647623431133</v>
+      </c>
+      <c r="H42">
+        <v>0.03800614063500479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002756464567430949</v>
+        <v>-0.01358930531741912</v>
       </c>
       <c r="C43">
-        <v>0.001736789335795942</v>
+        <v>0.003877883305271092</v>
       </c>
       <c r="D43">
-        <v>0.01046286974028029</v>
+        <v>-0.008471753057414643</v>
       </c>
       <c r="E43">
-        <v>-0.006632373759532728</v>
+        <v>6.309378038742443e-05</v>
       </c>
       <c r="F43">
-        <v>0.02272568104538543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.005721726077261208</v>
+      </c>
+      <c r="G43">
+        <v>0.0005105800623294684</v>
+      </c>
+      <c r="H43">
+        <v>0.003668563133725555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.023386977453193</v>
+        <v>-0.01280173493541572</v>
       </c>
       <c r="C44">
-        <v>-0.003551348219811061</v>
+        <v>-0.00691322146709569</v>
       </c>
       <c r="D44">
-        <v>0.04089110834727858</v>
+        <v>0.04370987755014396</v>
       </c>
       <c r="E44">
-        <v>-0.00251101910989606</v>
+        <v>0.01259700685771863</v>
       </c>
       <c r="F44">
-        <v>0.09452714092935018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.007352969249046971</v>
+      </c>
+      <c r="G44">
+        <v>0.0384283032021288</v>
+      </c>
+      <c r="H44">
+        <v>0.06167349659024465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01831572250225514</v>
+        <v>-0.006798751009564368</v>
       </c>
       <c r="C46">
-        <v>0.008411184029506906</v>
+        <v>0.006021103995165306</v>
       </c>
       <c r="D46">
-        <v>0.06316947065646007</v>
+        <v>0.01721300184587909</v>
       </c>
       <c r="E46">
-        <v>0.01789266805137837</v>
+        <v>0.001396849251800252</v>
       </c>
       <c r="F46">
-        <v>0.06029269185953838</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0008897045318504018</v>
+      </c>
+      <c r="G46">
+        <v>0.04115001498893159</v>
+      </c>
+      <c r="H46">
+        <v>0.00844536205893137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08226468056623774</v>
+        <v>-0.05981303911883631</v>
       </c>
       <c r="C47">
-        <v>0.04828949469524702</v>
+        <v>-0.02573591342658652</v>
       </c>
       <c r="D47">
-        <v>0.01752056474459013</v>
+        <v>0.06106655399738491</v>
       </c>
       <c r="E47">
-        <v>0.02718444643619393</v>
+        <v>0.005357556897877379</v>
       </c>
       <c r="F47">
-        <v>0.004310519675760722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.008460820242372475</v>
+      </c>
+      <c r="G47">
+        <v>-0.002685856106095199</v>
+      </c>
+      <c r="H47">
+        <v>-0.0308414364341091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01745461906043807</v>
+        <v>-0.01732448495694729</v>
       </c>
       <c r="C48">
-        <v>0.0103464738137759</v>
+        <v>-0.004872537472955291</v>
       </c>
       <c r="D48">
-        <v>0.02390801695198994</v>
+        <v>0.01544672166685891</v>
       </c>
       <c r="E48">
-        <v>0.007206461726530131</v>
+        <v>0.0009024874992132427</v>
       </c>
       <c r="F48">
-        <v>0.03286382474107932</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.003494146379387056</v>
+      </c>
+      <c r="G48">
+        <v>0.01772573439251387</v>
+      </c>
+      <c r="H48">
+        <v>0.01958772301460907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08381957038570624</v>
+        <v>-0.06262858257106331</v>
       </c>
       <c r="C50">
-        <v>0.03117032369600821</v>
+        <v>-0.0235277844398377</v>
       </c>
       <c r="D50">
-        <v>0.03906274851446531</v>
+        <v>0.05820968177700468</v>
       </c>
       <c r="E50">
-        <v>0.01916044034851041</v>
+        <v>0.01657436077961584</v>
       </c>
       <c r="F50">
-        <v>0.01761503375329594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.003140352944305513</v>
+      </c>
+      <c r="G50">
+        <v>0.007177696479034981</v>
+      </c>
+      <c r="H50">
+        <v>-0.01719347243205434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01928856973669234</v>
+        <v>-0.01569941521370137</v>
       </c>
       <c r="C51">
-        <v>0.004469832129908581</v>
+        <v>0.001437636712658743</v>
       </c>
       <c r="D51">
-        <v>0.002927765607702591</v>
+        <v>0.01235862551723916</v>
       </c>
       <c r="E51">
-        <v>0.004197151437954362</v>
+        <v>0.007790476608823376</v>
       </c>
       <c r="F51">
-        <v>0.08577791010520892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.001529714045280132</v>
+      </c>
+      <c r="G51">
+        <v>0.03248360130675206</v>
+      </c>
+      <c r="H51">
+        <v>0.04368079509754314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09005385484433828</v>
+        <v>-0.07682757824856767</v>
       </c>
       <c r="C53">
-        <v>0.05125336022779207</v>
+        <v>-0.03461746262844673</v>
       </c>
       <c r="D53">
-        <v>0.03912259633497434</v>
+        <v>0.09535032488642989</v>
       </c>
       <c r="E53">
-        <v>0.03651825695762714</v>
+        <v>0.01014665117647327</v>
       </c>
       <c r="F53">
-        <v>-0.03909746788959929</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02854570062309796</v>
+      </c>
+      <c r="G53">
+        <v>-0.02473652805273446</v>
+      </c>
+      <c r="H53">
+        <v>-0.03169309374256718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02233762695441333</v>
+        <v>-0.02439324387410154</v>
       </c>
       <c r="C54">
-        <v>0.0007245433295642806</v>
+        <v>-0.006180499585893358</v>
       </c>
       <c r="D54">
-        <v>0.00768772770153697</v>
+        <v>-0.005993462503869791</v>
       </c>
       <c r="E54">
-        <v>0.0108295916087158</v>
+        <v>0.006101298235425526</v>
       </c>
       <c r="F54">
-        <v>0.0316285243200649</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.006553323570248951</v>
+      </c>
+      <c r="G54">
+        <v>0.03897280574935025</v>
+      </c>
+      <c r="H54">
+        <v>0.0003455667767396768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08632703032921528</v>
+        <v>-0.05946449097705866</v>
       </c>
       <c r="C55">
-        <v>0.04659634172051666</v>
+        <v>-0.03058252167047033</v>
       </c>
       <c r="D55">
-        <v>0.04848131509005436</v>
+        <v>0.08838967860553554</v>
       </c>
       <c r="E55">
-        <v>0.0286113979038883</v>
+        <v>0.008937957838841109</v>
       </c>
       <c r="F55">
-        <v>-0.03867235987150093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01699159552119323</v>
+      </c>
+      <c r="G55">
+        <v>-0.007507292181461457</v>
+      </c>
+      <c r="H55">
+        <v>-0.04100499936716859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1275917154682009</v>
+        <v>-0.1018083453168299</v>
       </c>
       <c r="C56">
-        <v>0.07809749183969861</v>
+        <v>-0.05068682888695931</v>
       </c>
       <c r="D56">
-        <v>0.0308873913287781</v>
+        <v>0.1216019130974753</v>
       </c>
       <c r="E56">
-        <v>0.07830550537864925</v>
+        <v>0.01015541224933254</v>
       </c>
       <c r="F56">
-        <v>-0.07060965068440091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05459143602593881</v>
+      </c>
+      <c r="G56">
+        <v>-0.04869770380343057</v>
+      </c>
+      <c r="H56">
+        <v>-0.06960352825659134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04018865761256667</v>
+        <v>-0.02800589915588552</v>
       </c>
       <c r="C57">
-        <v>0.03306956996658878</v>
+        <v>0.01237234465790591</v>
       </c>
       <c r="D57">
-        <v>0.01843697846351633</v>
+        <v>0.03939369619948333</v>
       </c>
       <c r="E57">
-        <v>-0.008806393718483074</v>
+        <v>-0.01113265617992366</v>
       </c>
       <c r="F57">
-        <v>0.05241187607917544</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.006442458571360797</v>
+      </c>
+      <c r="G57">
+        <v>0.06471910920158917</v>
+      </c>
+      <c r="H57">
+        <v>0.05392246523708604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1471049465054655</v>
+        <v>-0.09971935587945811</v>
       </c>
       <c r="C58">
-        <v>0.2041677313535867</v>
+        <v>-0.04211545872441939</v>
       </c>
       <c r="D58">
-        <v>0.2237319491112638</v>
+        <v>0.1790633530806113</v>
       </c>
       <c r="E58">
-        <v>0.0007800622098664177</v>
+        <v>-0.2918741266873332</v>
       </c>
       <c r="F58">
-        <v>0.5168262545238286</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2444666913372531</v>
+      </c>
+      <c r="G58">
+        <v>0.7935692723994319</v>
+      </c>
+      <c r="H58">
+        <v>-0.3121453520800131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05401939362388907</v>
+        <v>-0.1987722691100369</v>
       </c>
       <c r="C59">
-        <v>0.02683485928121808</v>
+        <v>0.006468545196113824</v>
       </c>
       <c r="D59">
-        <v>-0.1822303666248735</v>
+        <v>-0.1852353607457815</v>
       </c>
       <c r="E59">
-        <v>-0.01464727452930527</v>
+        <v>-0.008001910906892789</v>
       </c>
       <c r="F59">
-        <v>0.09222166017760958</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.005145947307630927</v>
+      </c>
+      <c r="G59">
+        <v>0.01994574693367144</v>
+      </c>
+      <c r="H59">
+        <v>0.01806498766885145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1333490246132728</v>
+        <v>-0.2092222396241631</v>
       </c>
       <c r="C60">
-        <v>0.1107937474362211</v>
+        <v>-0.02537207126557739</v>
       </c>
       <c r="D60">
-        <v>-0.003884688590786585</v>
+        <v>0.04782024621115303</v>
       </c>
       <c r="E60">
-        <v>-0.01873409681520992</v>
+        <v>-0.05072841727660968</v>
       </c>
       <c r="F60">
-        <v>0.1673498266350904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.07806259395196243</v>
+      </c>
+      <c r="G60">
+        <v>0.02104450554639486</v>
+      </c>
+      <c r="H60">
+        <v>0.3764568119609538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01956527040170203</v>
+        <v>-0.01389473571532824</v>
       </c>
       <c r="C61">
-        <v>0.009942688748492343</v>
+        <v>-0.01171661631943242</v>
       </c>
       <c r="D61">
-        <v>0.04562364067269257</v>
+        <v>0.05959200978120334</v>
       </c>
       <c r="E61">
-        <v>0.005112665424380381</v>
+        <v>0.002954448656887814</v>
       </c>
       <c r="F61">
-        <v>0.01714875781747972</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01847187996097828</v>
+      </c>
+      <c r="G61">
+        <v>0.02192768515273327</v>
+      </c>
+      <c r="H61">
+        <v>0.05880237223717148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01097853408779306</v>
+        <v>-0.005791433535810028</v>
       </c>
       <c r="C63">
-        <v>0.004902273165257243</v>
+        <v>0.001803555597973878</v>
       </c>
       <c r="D63">
-        <v>0.03286555912268634</v>
+        <v>0.02467220394529536</v>
       </c>
       <c r="E63">
-        <v>0.003038717425892532</v>
+        <v>0.006269991085850116</v>
       </c>
       <c r="F63">
-        <v>0.008089455190331661</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.004756014412693015</v>
+      </c>
+      <c r="G63">
+        <v>0.01680338645339543</v>
+      </c>
+      <c r="H63">
+        <v>0.0116629340178063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03333287900724787</v>
+        <v>-0.0360822372921886</v>
       </c>
       <c r="C64">
-        <v>0.0008335912562171811</v>
+        <v>-0.009391762957863023</v>
       </c>
       <c r="D64">
-        <v>0.03476563619344631</v>
+        <v>0.04119732169448893</v>
       </c>
       <c r="E64">
-        <v>0.01551302099356298</v>
+        <v>0.01587830831558761</v>
       </c>
       <c r="F64">
-        <v>0.01797048595041565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.006337355840792508</v>
+      </c>
+      <c r="G64">
+        <v>-0.009392927171736875</v>
+      </c>
+      <c r="H64">
+        <v>0.04877567719026171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03572689181322614</v>
+        <v>-0.03687227335733362</v>
       </c>
       <c r="C65">
-        <v>0.01352664966251363</v>
+        <v>-0.005656564835461734</v>
       </c>
       <c r="D65">
-        <v>0.04066263880243055</v>
+        <v>0.07903760701267162</v>
       </c>
       <c r="E65">
-        <v>0.02044366423584163</v>
+        <v>0.008278121659330138</v>
       </c>
       <c r="F65">
-        <v>0.003991800092783489</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.0464183167623244</v>
+      </c>
+      <c r="G65">
+        <v>0.0003361781138538869</v>
+      </c>
+      <c r="H65">
+        <v>0.07032548858520396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03240678321168516</v>
+        <v>-0.01486069806598402</v>
       </c>
       <c r="C66">
-        <v>0.03092222651435487</v>
+        <v>-0.01834970855046618</v>
       </c>
       <c r="D66">
-        <v>0.07109827427348742</v>
+        <v>0.1115081331601402</v>
       </c>
       <c r="E66">
-        <v>0.03550000245270318</v>
+        <v>-0.007699848895073459</v>
       </c>
       <c r="F66">
-        <v>0.03148460319421632</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03727151140663198</v>
+      </c>
+      <c r="G66">
+        <v>0.0307309117036699</v>
+      </c>
+      <c r="H66">
+        <v>0.08416893556931368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.019897274422891</v>
+        <v>-0.04669558708820732</v>
       </c>
       <c r="C67">
-        <v>0.015895848933284</v>
+        <v>-0.01754894382010206</v>
       </c>
       <c r="D67">
-        <v>-0.006984948154235138</v>
+        <v>0.02172214884051713</v>
       </c>
       <c r="E67">
-        <v>-0.007318100235648904</v>
+        <v>-0.001267121450829894</v>
       </c>
       <c r="F67">
-        <v>0.02537798133589075</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01873427100375216</v>
+      </c>
+      <c r="G67">
+        <v>0.01449170678192583</v>
+      </c>
+      <c r="H67">
+        <v>0.033489031107043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06749489226462076</v>
+        <v>-0.2014681882847156</v>
       </c>
       <c r="C68">
-        <v>0.02215854770046211</v>
+        <v>0.03096914330844423</v>
       </c>
       <c r="D68">
-        <v>-0.2138118808751849</v>
+        <v>-0.2087481508854838</v>
       </c>
       <c r="E68">
-        <v>-0.02631046082138163</v>
+        <v>-0.01031793906504399</v>
       </c>
       <c r="F68">
-        <v>0.08422116073512043</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04679558352868666</v>
+      </c>
+      <c r="G68">
+        <v>0.02509920220484835</v>
+      </c>
+      <c r="H68">
+        <v>-0.04308173824971451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0591048952999131</v>
+        <v>-0.05830976772208502</v>
       </c>
       <c r="C69">
-        <v>0.03733092966999482</v>
+        <v>-0.02817329898185985</v>
       </c>
       <c r="D69">
-        <v>0.02015936698808451</v>
+        <v>0.05235084664350795</v>
       </c>
       <c r="E69">
-        <v>0.03572949888627435</v>
+        <v>0.005236025575911319</v>
       </c>
       <c r="F69">
-        <v>0.005032688009563014</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02885634233142737</v>
+      </c>
+      <c r="G69">
+        <v>-0.006573719169782583</v>
+      </c>
+      <c r="H69">
+        <v>0.00675469285426753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07676438248350571</v>
+        <v>-0.1810978934173212</v>
       </c>
       <c r="C71">
-        <v>0.03308261091267122</v>
+        <v>0.01668513248767465</v>
       </c>
       <c r="D71">
-        <v>-0.2168144461400376</v>
+        <v>-0.1661650009956118</v>
       </c>
       <c r="E71">
-        <v>-0.05771593183572106</v>
+        <v>-0.01489080581327191</v>
       </c>
       <c r="F71">
-        <v>0.09137848334721323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05635935874858861</v>
+      </c>
+      <c r="G71">
+        <v>0.03031255548813872</v>
+      </c>
+      <c r="H71">
+        <v>-0.02315871677343538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0966427223619523</v>
+        <v>-0.06074292003462659</v>
       </c>
       <c r="C72">
-        <v>0.07601677896989267</v>
+        <v>-0.03917981501150311</v>
       </c>
       <c r="D72">
-        <v>0.0785678360108321</v>
+        <v>0.09709497392315417</v>
       </c>
       <c r="E72">
-        <v>0.08205289663540018</v>
+        <v>-0.01361041423159779</v>
       </c>
       <c r="F72">
-        <v>0.06587285664082991</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07315956449709179</v>
+      </c>
+      <c r="G72">
+        <v>0.02739829954852106</v>
+      </c>
+      <c r="H72">
+        <v>0.1033976741845268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1723687312737778</v>
+        <v>-0.2718063143930717</v>
       </c>
       <c r="C73">
-        <v>0.1797904003745296</v>
+        <v>-0.03918098221448299</v>
       </c>
       <c r="D73">
-        <v>-0.02056499154599012</v>
+        <v>0.1172400905918305</v>
       </c>
       <c r="E73">
-        <v>-0.0484481682416294</v>
+        <v>-0.09151943897330338</v>
       </c>
       <c r="F73">
-        <v>0.2099904726064228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.09294043469205038</v>
+      </c>
+      <c r="G73">
+        <v>0.02796229205582163</v>
+      </c>
+      <c r="H73">
+        <v>0.4861472937829861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1179550462016933</v>
+        <v>-0.09777944401814088</v>
       </c>
       <c r="C74">
-        <v>0.07141111946564098</v>
+        <v>-0.05009841500642231</v>
       </c>
       <c r="D74">
-        <v>0.03169313499169672</v>
+        <v>0.1241861306569808</v>
       </c>
       <c r="E74">
-        <v>0.0442561268381794</v>
+        <v>0.01164177799879749</v>
       </c>
       <c r="F74">
-        <v>-0.0792054564300865</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03943053208896875</v>
+      </c>
+      <c r="G74">
+        <v>-0.0345058546180366</v>
+      </c>
+      <c r="H74">
+        <v>-0.03734607065560171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2043979857272098</v>
+        <v>-0.2010595519765604</v>
       </c>
       <c r="C75">
-        <v>0.1395500769246998</v>
+        <v>-0.09285066337776796</v>
       </c>
       <c r="D75">
-        <v>0.0368837084158915</v>
+        <v>0.1979963482986356</v>
       </c>
       <c r="E75">
-        <v>0.1478162750813031</v>
+        <v>0.009569273250763026</v>
       </c>
       <c r="F75">
-        <v>-0.1197923781919532</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1021860651419625</v>
+      </c>
+      <c r="G75">
+        <v>-0.08819627347764931</v>
+      </c>
+      <c r="H75">
+        <v>-0.1481684224684386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2519379930566502</v>
+        <v>-0.1608727562729988</v>
       </c>
       <c r="C76">
-        <v>0.1241543359097544</v>
+        <v>-0.08433199184003243</v>
       </c>
       <c r="D76">
-        <v>0.04254823111560397</v>
+        <v>0.1847647939423444</v>
       </c>
       <c r="E76">
-        <v>0.1757763706370588</v>
+        <v>0.04781081365879715</v>
       </c>
       <c r="F76">
-        <v>-0.2025958663107316</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.08854449367978155</v>
+      </c>
+      <c r="G76">
+        <v>-0.07597266022058835</v>
+      </c>
+      <c r="H76">
+        <v>-0.1265368729786175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09715706554612559</v>
+        <v>-0.05300733435328917</v>
       </c>
       <c r="C77">
-        <v>0.07411575536669436</v>
+        <v>-0.01213149106891058</v>
       </c>
       <c r="D77">
-        <v>0.1149821128173543</v>
+        <v>0.09138415468100469</v>
       </c>
       <c r="E77">
-        <v>-0.0433500018098464</v>
+        <v>-0.02035374840066377</v>
       </c>
       <c r="F77">
-        <v>0.1297968775644704</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03223702444406822</v>
+      </c>
+      <c r="G77">
+        <v>0.06590516364577732</v>
+      </c>
+      <c r="H77">
+        <v>0.02581537029558788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06027710590595707</v>
+        <v>-0.02864580097230047</v>
       </c>
       <c r="C78">
-        <v>0.02970004649643423</v>
+        <v>-0.01518910170598455</v>
       </c>
       <c r="D78">
-        <v>0.1223899475610121</v>
+        <v>0.07795229949801748</v>
       </c>
       <c r="E78">
-        <v>0.01869813497358422</v>
+        <v>0.005300114384734363</v>
       </c>
       <c r="F78">
-        <v>0.07338599278881702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01399041528116048</v>
+      </c>
+      <c r="G78">
+        <v>0.0548041670348076</v>
+      </c>
+      <c r="H78">
+        <v>0.09284440932974412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5700899046070894</v>
+        <v>-0.1135768253299266</v>
       </c>
       <c r="C80">
-        <v>-0.8016454405016655</v>
+        <v>-0.02947350181768147</v>
       </c>
       <c r="D80">
-        <v>0.06983830033475971</v>
+        <v>0.1036360183898169</v>
       </c>
       <c r="E80">
-        <v>-0.05164374110299461</v>
+        <v>0.906024247833999</v>
       </c>
       <c r="F80">
-        <v>0.04354891991257516</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.3005609057346944</v>
+      </c>
+      <c r="G80">
+        <v>0.1744836596865153</v>
+      </c>
+      <c r="H80">
+        <v>0.02143565730806175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1611642716716949</v>
+        <v>-0.132033780425862</v>
       </c>
       <c r="C81">
-        <v>0.09409025012858097</v>
+        <v>-0.0587408320555647</v>
       </c>
       <c r="D81">
-        <v>0.01929797209632894</v>
+        <v>0.1258050964452848</v>
       </c>
       <c r="E81">
-        <v>0.1178801126783826</v>
+        <v>0.01681507620083821</v>
       </c>
       <c r="F81">
-        <v>-0.1137993349034918</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06069359505928292</v>
+      </c>
+      <c r="G81">
+        <v>-0.0510825822921018</v>
+      </c>
+      <c r="H81">
+        <v>-0.07938032744024993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03100288928602978</v>
+        <v>-0.02805300815661592</v>
       </c>
       <c r="C83">
-        <v>0.02641758860083946</v>
+        <v>-0.004786784164392248</v>
       </c>
       <c r="D83">
-        <v>0.02983763050213755</v>
+        <v>0.02792092568967316</v>
       </c>
       <c r="E83">
-        <v>-0.01196980702708958</v>
+        <v>-0.007898765237480638</v>
       </c>
       <c r="F83">
-        <v>0.05815628836139808</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.002476873536372163</v>
+      </c>
+      <c r="G83">
+        <v>0.03927038036616366</v>
+      </c>
+      <c r="H83">
+        <v>0.04347362288452959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2278096447113866</v>
+        <v>-0.1920766368608429</v>
       </c>
       <c r="C85">
-        <v>0.139477191274832</v>
+        <v>-0.07934159194531049</v>
       </c>
       <c r="D85">
-        <v>0.03765117964963643</v>
+        <v>0.2019483053325501</v>
       </c>
       <c r="E85">
-        <v>0.1331129174780056</v>
+        <v>0.009110028347126247</v>
       </c>
       <c r="F85">
-        <v>-0.1574966580249288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.09618558406251436</v>
+      </c>
+      <c r="G85">
+        <v>-0.1155673326829004</v>
+      </c>
+      <c r="H85">
+        <v>-0.07497499109980363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007945097178167236</v>
+        <v>-0.01502693303680051</v>
       </c>
       <c r="C86">
-        <v>-0.001897811984258543</v>
+        <v>-0.00308028631083739</v>
       </c>
       <c r="D86">
-        <v>0.08019116133444117</v>
+        <v>0.03980566316939958</v>
       </c>
       <c r="E86">
-        <v>-0.004859882703555824</v>
+        <v>0.006216407654305698</v>
       </c>
       <c r="F86">
-        <v>0.04947241089799441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01348747457446778</v>
+      </c>
+      <c r="G86">
+        <v>0.03915648680720706</v>
+      </c>
+      <c r="H86">
+        <v>0.07952219962548714</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03355274944003865</v>
+        <v>-0.01489879930987374</v>
       </c>
       <c r="C87">
-        <v>0.01827996752177399</v>
+        <v>-0.00378113818818924</v>
       </c>
       <c r="D87">
-        <v>0.04241398369048296</v>
+        <v>0.04813797565083843</v>
       </c>
       <c r="E87">
-        <v>-0.0007583915395122557</v>
+        <v>-0.003554589939311969</v>
       </c>
       <c r="F87">
-        <v>0.1019377550779222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.003672468407931123</v>
+      </c>
+      <c r="G87">
+        <v>0.07137196057213437</v>
+      </c>
+      <c r="H87">
+        <v>0.08487084168666721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01926348396486374</v>
+        <v>-0.03979304725745175</v>
       </c>
       <c r="C88">
-        <v>-0.004545590058027456</v>
+        <v>0.01069527748979507</v>
       </c>
       <c r="D88">
-        <v>-0.003288923084574531</v>
+        <v>0.02678824180202488</v>
       </c>
       <c r="E88">
-        <v>0.01641931405028793</v>
+        <v>0.02083810071027143</v>
       </c>
       <c r="F88">
-        <v>-0.0174262953067401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01848739876861882</v>
+      </c>
+      <c r="G88">
+        <v>-0.001446362203804829</v>
+      </c>
+      <c r="H88">
+        <v>0.00673657899925652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1050834510865822</v>
+        <v>-0.3081060538715401</v>
       </c>
       <c r="C89">
-        <v>0.05040852264596913</v>
+        <v>0.03222369440151797</v>
       </c>
       <c r="D89">
-        <v>-0.3335405190791231</v>
+        <v>-0.2961376285202704</v>
       </c>
       <c r="E89">
-        <v>-0.02375278512834256</v>
+        <v>-0.01164949468174467</v>
       </c>
       <c r="F89">
-        <v>0.1194642777335999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01807111920859865</v>
+      </c>
+      <c r="G89">
+        <v>-0.01756392369642568</v>
+      </c>
+      <c r="H89">
+        <v>-0.006215270524791191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0914277707909958</v>
+        <v>-0.2577725905852617</v>
       </c>
       <c r="C90">
-        <v>0.01995492697526329</v>
+        <v>0.0302996584570765</v>
       </c>
       <c r="D90">
-        <v>-0.3645471253759732</v>
+        <v>-0.2760171447015136</v>
       </c>
       <c r="E90">
-        <v>-0.04397927061060775</v>
+        <v>-0.004935346117499568</v>
       </c>
       <c r="F90">
-        <v>0.05940127308978913</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05967334992865488</v>
+      </c>
+      <c r="G90">
+        <v>-0.006110139272787129</v>
+      </c>
+      <c r="H90">
+        <v>-0.05425342298771414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.255938392756952</v>
+        <v>-0.1982851467324957</v>
       </c>
       <c r="C91">
-        <v>0.1777904461413242</v>
+        <v>-0.08794846032624445</v>
       </c>
       <c r="D91">
-        <v>0.02868873231108712</v>
+        <v>0.1845915482499365</v>
       </c>
       <c r="E91">
-        <v>0.1228467294420962</v>
+        <v>-0.001882385003855114</v>
       </c>
       <c r="F91">
-        <v>-0.2412522672277005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08486974726968315</v>
+      </c>
+      <c r="G91">
+        <v>-0.1052296602498253</v>
+      </c>
+      <c r="H91">
+        <v>-0.170253737870819</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1592339296346387</v>
+        <v>-0.2794014100266968</v>
       </c>
       <c r="C92">
-        <v>0.07097169730628408</v>
+        <v>-0.03578035157266413</v>
       </c>
       <c r="D92">
-        <v>-0.4142226724747644</v>
+        <v>-0.1918967835293221</v>
       </c>
       <c r="E92">
-        <v>0.1370266657648584</v>
+        <v>0.006464300927672594</v>
       </c>
       <c r="F92">
-        <v>-0.0281756172585521</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.007151338913360933</v>
+      </c>
+      <c r="G92">
+        <v>0.03520332236098413</v>
+      </c>
+      <c r="H92">
+        <v>-0.1488655278926688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09042084378110225</v>
+        <v>-0.287917509279203</v>
       </c>
       <c r="C93">
-        <v>0.05883112153951924</v>
+        <v>0.02025759708047555</v>
       </c>
       <c r="D93">
-        <v>-0.4342056245057683</v>
+        <v>-0.2787184438628756</v>
       </c>
       <c r="E93">
-        <v>-0.06814476613307359</v>
+        <v>-0.03332712286369287</v>
       </c>
       <c r="F93">
-        <v>0.07640550356318208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05052684301259219</v>
+      </c>
+      <c r="G93">
+        <v>-0.0123992175218024</v>
+      </c>
+      <c r="H93">
+        <v>-0.001710116008895595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2492345788699566</v>
+        <v>-0.2483115878984418</v>
       </c>
       <c r="C94">
-        <v>0.1830292807842766</v>
+        <v>-0.08695981025198646</v>
       </c>
       <c r="D94">
-        <v>0.03341354713097212</v>
+        <v>0.2100986769593358</v>
       </c>
       <c r="E94">
-        <v>0.2281876410441186</v>
+        <v>-0.003258360119155739</v>
       </c>
       <c r="F94">
-        <v>-0.1902156618400888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.216427481292026</v>
+      </c>
+      <c r="G94">
+        <v>-0.1880609640280717</v>
+      </c>
+      <c r="H94">
+        <v>-0.3845924849078031</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01647035864906569</v>
+        <v>-0.03327651494277252</v>
       </c>
       <c r="C95">
-        <v>0.08665512930631634</v>
+        <v>-0.03254882233047102</v>
       </c>
       <c r="D95">
-        <v>0.06207674175131498</v>
+        <v>0.09433359603323446</v>
       </c>
       <c r="E95">
-        <v>-0.01204282976803684</v>
+        <v>-0.08186428276048874</v>
       </c>
       <c r="F95">
-        <v>0.009798719787921783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01518283790353883</v>
+      </c>
+      <c r="G95">
+        <v>0.04083493103787571</v>
+      </c>
+      <c r="H95">
+        <v>0.03227743358148531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1402827234927099</v>
+        <v>-0.1874908307082215</v>
       </c>
       <c r="C98">
-        <v>0.1175386315878136</v>
+        <v>-0.05181031250291042</v>
       </c>
       <c r="D98">
-        <v>-0.02227094570809239</v>
+        <v>0.05494783516692039</v>
       </c>
       <c r="E98">
-        <v>-0.04662031180053306</v>
+        <v>-0.06529806884848484</v>
       </c>
       <c r="F98">
-        <v>0.1705356438726693</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01925231157646262</v>
+      </c>
+      <c r="G98">
+        <v>0.06368395672029963</v>
+      </c>
+      <c r="H98">
+        <v>0.3350220862297925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006685405563428426</v>
+        <v>-0.009022425321809972</v>
       </c>
       <c r="C101">
-        <v>-0.002968256649437169</v>
+        <v>0.0007656365332936599</v>
       </c>
       <c r="D101">
-        <v>0.07256094526604541</v>
+        <v>0.02029725959096867</v>
       </c>
       <c r="E101">
-        <v>0.02546942786952118</v>
+        <v>-0.00147080423895225</v>
       </c>
       <c r="F101">
-        <v>0.1673699496585472</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.003673218365429491</v>
+      </c>
+      <c r="G101">
+        <v>0.09877261070690417</v>
+      </c>
+      <c r="H101">
+        <v>-0.0111863266807049</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1034453123830513</v>
+        <v>-0.09490103270474688</v>
       </c>
       <c r="C102">
-        <v>0.05980602392238863</v>
+        <v>-0.03126020015398268</v>
       </c>
       <c r="D102">
-        <v>0.01986512257935578</v>
+        <v>0.09622570467498014</v>
       </c>
       <c r="E102">
-        <v>0.07058275892948238</v>
+        <v>0.009119061230024175</v>
       </c>
       <c r="F102">
-        <v>-0.09678886262123705</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05186975376981087</v>
+      </c>
+      <c r="G102">
+        <v>-0.05143289932678276</v>
+      </c>
+      <c r="H102">
+        <v>-0.06430246872543957</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04225473053258178</v>
+        <v>-0.01227615767515329</v>
       </c>
       <c r="C103">
-        <v>0.01140283880420766</v>
+        <v>-0.005828705332379161</v>
       </c>
       <c r="D103">
-        <v>0.02877310462733485</v>
+        <v>0.01819522335844034</v>
       </c>
       <c r="E103">
-        <v>0.03488894566307758</v>
+        <v>0.01267625638470446</v>
       </c>
       <c r="F103">
-        <v>-0.007682275676837842</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.00382748961738714</v>
+      </c>
+      <c r="G103">
+        <v>0.006296955104712319</v>
+      </c>
+      <c r="H103">
+        <v>-0.01358090123056237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.127382128317239</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9615966830652555</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1749904449365134</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03173637116280403</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1233816177106344</v>
+      </c>
+      <c r="G104">
+        <v>0.01897013919404588</v>
+      </c>
+      <c r="H104">
+        <v>-0.05250199797721373</v>
       </c>
     </row>
   </sheetData>
